--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/word_level_predictions_17.xlsx
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
+      <c r="A330" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G330" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" t="b">
-        <v>1</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K330" t="b">
-        <v>1</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F330" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
+      <c r="A331" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" t="inlineStr">
+      <c r="D331" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J331" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G331" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K331" t="b">
-        <v>1</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
+      <c r="F332" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B333" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>2</v>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G332" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K332" t="b">
-        <v>1</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>27</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G333" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K333" t="b">
-        <v>1</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F333" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J333" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K333" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori2/17/word_level_predictions_17.xlsx
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G115" s="2" t="b">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17558,210 +17558,210 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" t="n">
         <v>27</v>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B330" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C330" s="2" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D330" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E330" s="2" t="inlineStr">
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F330" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G330" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H330" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K330" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L330" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>27</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>27</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>2</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
+      <c r="F332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>27</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>3</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>3</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>4</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
